--- a/cordexp/models/uhoh-wrf361h/cordexp_eur_11_uhoh_wrf361h_toplevel.xlsx
+++ b/cordexp/models/uhoh-wrf361h/cordexp_eur_11_uhoh_wrf361h_toplevel.xlsx
@@ -64,7 +64,7 @@
     <t>Further Info</t>
   </si>
   <si>
-    <t>https://es-doc.org/cordex</t>
+    <t>https://es-doc.org/cordexp</t>
   </si>
   <si>
     <t>Specialization Version</t>
